--- a/src/goodsReward.xlsx
+++ b/src/goodsReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF16A77-8458-4AF4-9B13-C1DD3BBEF90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A38F5-BFA1-472D-8175-A4788C6C10E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -85,13 +85,14 @@
   </si>
   <si>
     <t>小怪基础奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +102,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -129,8 +138,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,7 +555,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4">
@@ -557,6 +569,1986 @@
       </c>
       <c r="F4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>62</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>76</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>78</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>86</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>88</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>90</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>92</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>94</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>96</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>98</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>102</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>104</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>106</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>108</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>110</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>112</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>114</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>116</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>118</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>120</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>122</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>124</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>126</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>128</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>130</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>132</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>134</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>136</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>138</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>140</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>142</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>146</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>148</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>150</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>152</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>154</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>156</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>158</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>160</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>162</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>164</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>166</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>168</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>170</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>172</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>174</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>176</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>178</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>180</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>182</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>184</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>186</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>188</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>190</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>192</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>194</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>196</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>198</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>200</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -567,10 +2559,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,16 +2573,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,11 +2592,13 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -618,13 +2610,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -636,7 +2628,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/goodsReward.xlsx
+++ b/src/goodsReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A38F5-BFA1-472D-8175-A4788C6C10E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E76A88-3401-4402-B2B2-BC2EB3AB10A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -622,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -642,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -662,13 +662,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -682,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -722,13 +722,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -742,13 +742,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -762,13 +762,13 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -782,13 +782,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -802,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16">
-        <v>65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -862,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -882,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
-        <v>95</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,13 +942,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1002,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>115</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>120</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1042,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1062,13 +1062,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>130</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1082,13 +1082,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>135</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1102,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>140</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1122,13 +1122,13 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>145</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>155</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1182,13 +1182,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35">
-        <v>160</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1202,13 +1202,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36">
-        <v>165</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,13 +1222,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>170</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1242,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38">
-        <v>175</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1262,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39">
-        <v>180</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>185</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41">
-        <v>190</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42">
-        <v>195</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1342,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>200</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
-        <v>205</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1382,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>210</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1402,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46">
-        <v>215</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1422,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="F47">
-        <v>220</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48">
-        <v>225</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1462,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49">
-        <v>230</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1482,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
       <c r="F50">
-        <v>235</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
       <c r="F51">
-        <v>240</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1522,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <v>245</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1542,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
       <c r="F53">
-        <v>250</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1562,13 +1562,13 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54">
-        <v>255</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1582,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55">
-        <v>260</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1602,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56">
-        <v>265</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1622,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57">
-        <v>270</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1642,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58">
-        <v>275</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1662,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>112</v>
+        <v>342</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
       <c r="F59">
-        <v>280</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1682,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="F60">
-        <v>285</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1702,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61">
-        <v>290</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1722,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>118</v>
+        <v>360</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
       <c r="F62">
-        <v>295</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1742,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>120</v>
+        <v>366</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
       <c r="F63">
-        <v>300</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1762,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64">
-        <v>305</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1782,13 +1782,13 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65">
-        <v>310</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1802,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66">
-        <v>315</v>
+        <v>625</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1822,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>128</v>
+        <v>390</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67">
-        <v>320</v>
+        <v>635</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68">
-        <v>325</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
       <c r="F69">
-        <v>330</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1882,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>134</v>
+        <v>408</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70">
-        <v>335</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1902,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
       <c r="F71">
-        <v>340</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1922,13 +1922,13 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
       <c r="F72">
-        <v>345</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1942,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73">
-        <v>350</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1962,13 +1962,13 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74">
-        <v>355</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1982,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>144</v>
+        <v>438</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
       <c r="F75">
-        <v>360</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2002,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>146</v>
+        <v>444</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76">
-        <v>365</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>148</v>
+        <v>450</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77">
-        <v>370</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2042,13 +2042,13 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>150</v>
+        <v>456</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78">
-        <v>375</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2062,13 +2062,13 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="F79">
-        <v>380</v>
+        <v>755</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2082,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>154</v>
+        <v>468</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
       <c r="F80">
-        <v>385</v>
+        <v>765</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2102,13 +2102,13 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>156</v>
+        <v>474</v>
       </c>
       <c r="E81">
         <v>3</v>
       </c>
       <c r="F81">
-        <v>390</v>
+        <v>775</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2122,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
       <c r="F82">
-        <v>395</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>160</v>
+        <v>486</v>
       </c>
       <c r="E83">
         <v>3</v>
       </c>
       <c r="F83">
-        <v>400</v>
+        <v>795</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>162</v>
+        <v>492</v>
       </c>
       <c r="E84">
         <v>3</v>
       </c>
       <c r="F84">
-        <v>405</v>
+        <v>805</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2182,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>164</v>
+        <v>498</v>
       </c>
       <c r="E85">
         <v>3</v>
       </c>
       <c r="F85">
-        <v>410</v>
+        <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2202,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="E86">
         <v>3</v>
       </c>
       <c r="F86">
-        <v>415</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2222,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="E87">
         <v>3</v>
       </c>
       <c r="F87">
-        <v>420</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>170</v>
+        <v>516</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
       <c r="F88">
-        <v>425</v>
+        <v>845</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2262,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>172</v>
+        <v>522</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
       <c r="F89">
-        <v>430</v>
+        <v>855</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>174</v>
+        <v>528</v>
       </c>
       <c r="E90">
         <v>3</v>
       </c>
       <c r="F90">
-        <v>435</v>
+        <v>865</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2302,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>176</v>
+        <v>534</v>
       </c>
       <c r="E91">
         <v>3</v>
       </c>
       <c r="F91">
-        <v>440</v>
+        <v>875</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2322,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>178</v>
+        <v>540</v>
       </c>
       <c r="E92">
         <v>3</v>
       </c>
       <c r="F92">
-        <v>445</v>
+        <v>885</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,13 +2342,13 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="F93">
-        <v>450</v>
+        <v>895</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2362,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94">
-        <v>455</v>
+        <v>905</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2382,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>184</v>
+        <v>558</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95">
-        <v>460</v>
+        <v>915</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2402,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>186</v>
+        <v>564</v>
       </c>
       <c r="E96">
         <v>3</v>
       </c>
       <c r="F96">
-        <v>465</v>
+        <v>925</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>188</v>
+        <v>570</v>
       </c>
       <c r="E97">
         <v>3</v>
       </c>
       <c r="F97">
-        <v>470</v>
+        <v>935</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2442,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>190</v>
+        <v>576</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98">
-        <v>475</v>
+        <v>945</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2462,13 +2462,13 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>192</v>
+        <v>582</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
       <c r="F99">
-        <v>480</v>
+        <v>955</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>194</v>
+        <v>588</v>
       </c>
       <c r="E100">
         <v>3</v>
       </c>
       <c r="F100">
-        <v>485</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>196</v>
+        <v>594</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101">
-        <v>490</v>
+        <v>975</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>198</v>
+        <v>600</v>
       </c>
       <c r="E102">
         <v>3</v>
       </c>
       <c r="F102">
-        <v>495</v>
+        <v>985</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2542,27 +2542,27 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>200</v>
+        <v>606</v>
       </c>
       <c r="E103">
         <v>3</v>
       </c>
       <c r="F103">
-        <v>500</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2573,14 +2573,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2592,13 +2594,11 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2610,13 +2610,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2628,7 +2628,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>